--- a/bots/crawl_ch/output/toilet_coop_2022-08-31.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-31.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -2035,50 +2035,50 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2103,55 +2103,55 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2176,34 +2176,34 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2247,34 +2247,34 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-31 07:13:58</t>
+          <t>2022-08-31 21:00:37</t>
         </is>
       </c>
     </row>
